--- a/participants/participant_45/participant_45_task_orders.xlsx
+++ b/participants/participant_45/participant_45_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498731435992453" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498731457228997" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1649873145723869" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498731457708707" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498731458329055" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650291278980096" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650291283268005" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502912832700047" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912833203893" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502912833834398" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498731435562465.csv</t>
+          <t>go_stims-16502912789325266.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731435822458.csv</t>
+          <t>GNG_stims-16502912789475658.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498731435832455.csv</t>
+          <t>go_stims-16502912789499106.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731435982456.csv</t>
+          <t>GNG_stims-1650291278979094.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_0-1649873144226869.csv</t>
+          <t>OB-16502912805400288.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-1649873144922871.csv</t>
+          <t>ZB-match_5-16502912796173196.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16498731452359056.csv</t>
+          <t>TB-1650291283252908.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16498731456938984.csv</t>
+          <t>ZB-match_4-16502912792958722.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_4-16498731437647283.csv</t>
+          <t>OB-16502912803278086.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16498731450008693.csv</t>
+          <t>TB-1650291281917672.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16498731455638688.csv</t>
+          <t>TB-16502912824346256.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16498731443048663.csv</t>
+          <t>ZB-match_5-1650291279779899.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_1-16498731436412477.csv</t>
+          <t>OB-16502912812629676.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498731457378974.csv</t>
+          <t>MM_stims-16502912832834225.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731457268698.csv</t>
+          <t>ZM_stims-16502912832720032.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498731457539032.csv</t>
+          <t>MM_stims-16502912833034446.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731457388809.csv</t>
+          <t>ZM_stims-16502912832844234.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498731457699018.csv</t>
+          <t>MM_stims-16502912833193905.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731457548838.csv</t>
+          <t>ZM_stims-16502912833044484.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731458018718.csv</t>
+          <t>SAT_stims-1650291283338133.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731457738693.csv</t>
+          <t>vSAT_stims-16502912833693855.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731458179016.csv</t>
+          <t>SAT_stims-16502912833258204.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731457858658.csv</t>
+          <t>vSAT_stims-16502912833539646.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_45/participant_45_task_orders.xlsx
+++ b/participants/participant_45/participant_45_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650291278980096" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650291283268005" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502912832700047" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912833203893" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502912833834398" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504778882490215" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778903320167" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778903330176" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778903966825" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650477890459681" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502912789325266.csv</t>
+          <t>go_stims-16504778882090604.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912789475658.csv</t>
+          <t>GNG_stims-16504778882320514.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502912789499106.csv</t>
+          <t>go_stims-16504778882330186.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650291278979094.csv</t>
+          <t>GNG_stims-16504778882480166.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16502912805400288.csv</t>
+          <t>ZB-match_0-1650477888894017.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_5-16502912796173196.csv</t>
+          <t>TB-1650477889923051.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-1650291283252908.csv</t>
+          <t>OB-16504778891080155.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_4-16502912792958722.csv</t>
+          <t>ZB-match_5-16504778885860205.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16502912803278086.csv</t>
+          <t>OB-16504778892040157.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1650291281917672.csv</t>
+          <t>ZB-match_9-16504778885300233.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16502912824346256.csv</t>
+          <t>OB-165047788923802.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_5-1650291279779899.csv</t>
+          <t>TB-16504778903190525.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16502912812629676.csv</t>
+          <t>TB-16504778895550544.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502912832834225.csv</t>
+          <t>MM_stims-16504778903640506.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912832720032.csv</t>
+          <t>ZM_stims-16504778903400512.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502912833034446.csv</t>
+          <t>MM_stims-16504778903796813.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912832844234.csv</t>
+          <t>ZM_stims-1650477890365016.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502912833193905.csv</t>
+          <t>MM_stims-16504778903957171.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912833044484.csv</t>
+          <t>ZM_stims-1650477890380685.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291283338133.csv</t>
+          <t>SAT_stims-1650477890398683.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912833693855.csv</t>
+          <t>vSAT_stims-16504778904276807.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912833258204.csv</t>
+          <t>SAT_stims-1650477890411682.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912833539646.csv</t>
+          <t>vSAT_stims-1650477890443681.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_45/participant_45_task_orders.xlsx
+++ b/participants/participant_45/participant_45_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504778882490215" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778903320167" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778903330176" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778903966825" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650477890459681" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650996188884854" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961907008893" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961907008893" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961907728522" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961908368897" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778882090604.csv</t>
+          <t>go_stims-16509961888528545.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778882320514.csv</t>
+          <t>GNG_stims-16509961888688567.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778882330186.csv</t>
+          <t>go_stims-16509961888688567.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778882480166.csv</t>
+          <t>GNG_stims-1650996188884854.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_0-1650477888894017.csv</t>
+          <t>OB-1650996190172855.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-1650477889923051.csv</t>
+          <t>TB-1650996190268862.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16504778891080155.csv</t>
+          <t>OB-1650996189724863.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_5-16504778885860205.csv</t>
+          <t>ZB-match_0-16509961896688988.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16504778892040157.csv</t>
+          <t>TB-16509961905328608.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_9-16504778885300233.csv</t>
+          <t>ZB-match_0-16509961895408885.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-165047788923802.csv</t>
+          <t>TB-1650996190684854.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16504778903190525.csv</t>
+          <t>OB-16509961901328912.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16504778895550544.csv</t>
+          <t>ZB-match_5-16509961893888528.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778903640506.csv</t>
+          <t>MM_stims-16509961907248576.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778903400512.csv</t>
+          <t>ZM_stims-16509961907088575.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778903796813.csv</t>
+          <t>MM_stims-16509961907488916.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477890365016.csv</t>
+          <t>ZM_stims-16509961907248576.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778903957171.csv</t>
+          <t>MM_stims-16509961907728522.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477890380685.csv</t>
+          <t>ZM_stims-16509961907488916.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1650477890398683.csv</t>
+          <t>SAT_stims-16509961907728522.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778904276807.csv</t>
+          <t>vSAT_stims-16509961908208907.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1650477890411682.csv</t>
+          <t>vSAT_stims-16509961908048604.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477890443681.csv</t>
+          <t>SAT_stims-16509961907888951.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_45/participant_45_task_orders.xlsx
+++ b/participants/participant_45/participant_45_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650996188884854" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961907008893" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961907008893" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961907728522" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961908368897" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1651168791527479" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651168794857426" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651168794859428" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651168794903962" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687949824743" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961888528545.csv</t>
+          <t>go_stims-1651168791496966.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961888688567.csv</t>
+          <t>GNG_stims-16511687915108476.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961888688567.csv</t>
+          <t>go_stims-16511687915118477.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650996188884854.csv</t>
+          <t>GNG_stims-16511687915265076.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-1650996190172855.csv</t>
+          <t>OB-1651168792927475.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-1650996190268862.csv</t>
+          <t>TB-16511687943787577.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-1650996189724863.csv</t>
+          <t>OB-1651168793189101.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_0-16509961896688988.csv</t>
+          <t>ZB-match_1-16511687923196144.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16509961905328608.csv</t>
+          <t>TB-16511687948398352.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_0-16509961895408885.csv</t>
+          <t>OB-16511687935073428.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-1650996190684854.csv</t>
+          <t>ZB-match_0-16511687920119143.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16509961901328912.csv</t>
+          <t>ZB-match_2-16511687920622752.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_5-16509961893888528.csv</t>
+          <t>TB-16511687936383483.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961907248576.csv</t>
+          <t>MM_stims-1651168794872627.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961907088575.csv</t>
+          <t>ZM_stims-16511687948624885.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961907488916.csv</t>
+          <t>MM_stims-16511687948882263.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961907248576.csv</t>
+          <t>ZM_stims-1651168794873633.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961907728522.csv</t>
+          <t>MM_stims-1651168794903962.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961907488916.csv</t>
+          <t>ZM_stims-16511687948892212.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961907728522.csv</t>
+          <t>vSAT_stims-16511687949668422.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961908208907.csv</t>
+          <t>SAT_stims-1651168794910347.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961908048604.csv</t>
+          <t>SAT_stims-16511687949358118.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961907888951.csv</t>
+          <t>vSAT_stims-16511687949507236.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_45/participant_45_task_orders.xlsx
+++ b/participants/participant_45/participant_45_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1651168791527479" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651168794857426" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651168794859428" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1651168794903962" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687949824743" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512556179750173" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512556201205363" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651255620126475" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512556201824403" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651255620255486" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651168791496966.csv</t>
+          <t>go_stims-16512556179460182.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687915108476.csv</t>
+          <t>GNG_stims-16512556179580152.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511687915118477.csv</t>
+          <t>go_stims-1651255617960025.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687915265076.csv</t>
+          <t>GNG_stims-16512556179740167.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-1651168792927475.csv</t>
+          <t>OB-16512556186407766.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16511687943787577.csv</t>
+          <t>ZB-match_1-16512556181567786.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-1651168793189101.csv</t>
+          <t>TB-16512556193897786.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_1-16511687923196144.csv</t>
+          <t>TB-1651255620100569.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16511687948398352.csv</t>
+          <t>ZB-match_1-165125561810302.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16511687935073428.csv</t>
+          <t>TB-16512556194307778.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_0-16511687920119143.csv</t>
+          <t>ZB-match_5-16512556180030143.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_2-16511687920622752.csv</t>
+          <t>OB-16512556193707767.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16511687936383483.csv</t>
+          <t>OB-16512556182467766.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1651168794872627.csv</t>
+          <t>MM_stims-16512556201514308.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687948624885.csv</t>
+          <t>ZM_stims-16512556201284804.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511687948882263.csv</t>
+          <t>MM_stims-16512556201661777.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168794873633.csv</t>
+          <t>ZM_stims-16512556201524327.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1651168794903962.csv</t>
+          <t>MM_stims-16512556201814427.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687948892212.csv</t>
+          <t>ZM_stims-16512556201671808.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687949668422.csv</t>
+          <t>SAT_stims-16512556201883333.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1651168794910347.csv</t>
+          <t>SAT_stims-16512556202079473.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687949358118.csv</t>
+          <t>vSAT_stims-16512556202246907.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687949507236.csv</t>
+          <t>vSAT_stims-1651255620238901.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_45/participant_45_task_orders.xlsx
+++ b/participants/participant_45/participant_45_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512556179750173" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512556201205363" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651255620126475" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512556201824403" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1651255620255486" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="TOL_TO-16515890392967472" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16515890413674967" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="vSAT_TO-16515890414299066" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GNG_TO-16515890414611573" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="RS_TO-16515890414611573" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512556179460182.csv</t>
+          <t>MM_stims-1651589039262676.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512556179580152.csv</t>
+          <t>ZM_stims-16515890392470882.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651255617960025.csv</t>
+          <t>MM_stims-1651589039278299.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512556179740167.csv</t>
+          <t>ZM_stims-1651589039262676.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MM_stims-16515890392967472.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZM_stims-1651589039278299.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +536,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16512556186407766.csv</t>
+          <t>OB-16515890404340498.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +546,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_1-16512556181567786.csv</t>
+          <t>TB-16515890412217212.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16512556193897786.csv</t>
+          <t>ZB-match_1-16515890403202424.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-1651255620100569.csv</t>
+          <t>ZB-match_1-16515890401731944.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +576,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_1-165125561810302.csv</t>
+          <t>OB-16515890408112302.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16512556194307778.csv</t>
+          <t>ZB-match_4-16515890393970292.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +596,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_5-16512556180030143.csv</t>
+          <t>OB-16515890407955399.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +606,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16512556193707767.csv</t>
+          <t>TB-16515890412862198.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +616,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16512556182467766.csv</t>
+          <t>TB-16515890413496265.csv</t>
         </is>
       </c>
     </row>
@@ -606,6 +626,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SAT_stims-16515890413674967.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SAT_stims-16515890413830378.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>vSAT_stims-1651589041414283.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>vSAT_stims-16515890413986592.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>go_stims-16515890414299066.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GNG_stims-16515890414455323.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>go_stims-16515890414455323.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GNG_stims-16515890414611573.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -649,156 +801,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-16512556201514308.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512556201284804.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-16512556201661777.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512556201524327.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512556201814427.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512556201671808.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SAT_stims-16512556201883333.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SAT_stims-16512556202079473.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>vSAT_stims-16512556202246907.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>vSAT_stims-1651255620238901.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>